--- a/data/pca/factorExposure/factorExposure_2018-07-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-07-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02998549086756571</v>
+        <v>0.02439124113976185</v>
       </c>
       <c r="C2">
-        <v>-0.02582743790634176</v>
+        <v>0.01823781721640944</v>
       </c>
       <c r="D2">
-        <v>-0.02644171732280642</v>
+        <v>0.0184305526133082</v>
       </c>
       <c r="E2">
-        <v>-0.0009829923497953954</v>
+        <v>0.01493649078330185</v>
       </c>
       <c r="F2">
-        <v>-0.1235934567871032</v>
+        <v>-0.004905308897391098</v>
       </c>
       <c r="G2">
-        <v>-0.03853134201675237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.05407139221760814</v>
+      </c>
+      <c r="H2">
+        <v>-0.05133727066246611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1070253037422871</v>
+        <v>0.08225824914945576</v>
       </c>
       <c r="C3">
-        <v>0.04012687816846114</v>
+        <v>-0.01161286743575302</v>
       </c>
       <c r="D3">
-        <v>-0.08597082486628944</v>
+        <v>0.02279841702414883</v>
       </c>
       <c r="E3">
-        <v>-0.003145117723201885</v>
+        <v>0.01280627417917521</v>
       </c>
       <c r="F3">
-        <v>-0.4040266432366861</v>
+        <v>0.04589782366174604</v>
       </c>
       <c r="G3">
-        <v>-0.1424167387756832</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.184017644603222</v>
+      </c>
+      <c r="H3">
+        <v>-0.1507205417671179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05151725749274717</v>
+        <v>0.04754297559805815</v>
       </c>
       <c r="C4">
-        <v>-0.02531275972106956</v>
+        <v>0.004287751369189511</v>
       </c>
       <c r="D4">
-        <v>0.0158803596728442</v>
+        <v>0.04183108021506668</v>
       </c>
       <c r="E4">
-        <v>-0.05230644970622945</v>
+        <v>-0.02263885636735026</v>
       </c>
       <c r="F4">
-        <v>-0.0882411466001484</v>
+        <v>-0.04747864747891255</v>
       </c>
       <c r="G4">
-        <v>-0.04212174724672137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04343538262390045</v>
+      </c>
+      <c r="H4">
+        <v>-0.05686817637247996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01512600502670644</v>
+        <v>0.02583805622370829</v>
       </c>
       <c r="C6">
-        <v>-0.00837888463797511</v>
+        <v>0.004283009296360258</v>
       </c>
       <c r="D6">
-        <v>-0.01718096707284577</v>
+        <v>0.0507415397573913</v>
       </c>
       <c r="E6">
-        <v>-0.02315986888132173</v>
+        <v>-0.008676297929588975</v>
       </c>
       <c r="F6">
-        <v>-0.01158117256057009</v>
+        <v>-0.02970976025830946</v>
       </c>
       <c r="G6">
-        <v>-0.003842874793990143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01519238039511073</v>
+      </c>
+      <c r="H6">
+        <v>-0.06074191183545249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02297721866137033</v>
+        <v>0.02190385705235814</v>
       </c>
       <c r="C7">
-        <v>-0.0009826142180576329</v>
+        <v>0.003254695918970231</v>
       </c>
       <c r="D7">
-        <v>-0.01551033355147786</v>
+        <v>0.02567481049660385</v>
       </c>
       <c r="E7">
-        <v>-0.03063264734763415</v>
+        <v>-0.04202944984324932</v>
       </c>
       <c r="F7">
-        <v>-0.05695950585285464</v>
+        <v>-0.002110466599602148</v>
       </c>
       <c r="G7">
-        <v>-0.06098728141098244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.02437860177914578</v>
+      </c>
+      <c r="H7">
+        <v>-0.03691192174982118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.02006098277316064</v>
+        <v>0.006283213605258338</v>
       </c>
       <c r="C8">
-        <v>-0.01583688824453463</v>
+        <v>-0.001588724063123878</v>
       </c>
       <c r="D8">
-        <v>-0.008371221245840802</v>
+        <v>0.01132852912732874</v>
       </c>
       <c r="E8">
-        <v>-0.04941757549812961</v>
+        <v>-0.007116586872799603</v>
       </c>
       <c r="F8">
-        <v>-0.09813651386723424</v>
+        <v>-0.01571819875106832</v>
       </c>
       <c r="G8">
-        <v>-0.0546652732405836</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.04784807560549843</v>
+      </c>
+      <c r="H8">
+        <v>-0.0406967565560628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03989594040630715</v>
+        <v>0.03769515071555514</v>
       </c>
       <c r="C9">
-        <v>-0.02378033999781893</v>
+        <v>0.0006426101763976433</v>
       </c>
       <c r="D9">
-        <v>0.003831941688756641</v>
+        <v>0.03288702491675208</v>
       </c>
       <c r="E9">
-        <v>-0.04963551261526526</v>
+        <v>-0.0118138794307848</v>
       </c>
       <c r="F9">
-        <v>-0.08770223842991925</v>
+        <v>-0.02433259727575366</v>
       </c>
       <c r="G9">
-        <v>-0.05372009190845122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.05227406956697694</v>
+      </c>
+      <c r="H9">
+        <v>-0.05264424439499787</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02633405057374455</v>
+        <v>0.09964847843574838</v>
       </c>
       <c r="C10">
-        <v>0.04143979958870318</v>
+        <v>-0.02740626614167605</v>
       </c>
       <c r="D10">
-        <v>0.08055261740350809</v>
+        <v>-0.1541940570899556</v>
       </c>
       <c r="E10">
-        <v>0.1041011693309882</v>
+        <v>0.01114976650259609</v>
       </c>
       <c r="F10">
-        <v>-0.05202540610397126</v>
+        <v>0.04709176822501341</v>
       </c>
       <c r="G10">
-        <v>0.03245260842824947</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02238780534057843</v>
+      </c>
+      <c r="H10">
+        <v>-0.003766240646110259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03773255652815779</v>
+        <v>0.02202082849253247</v>
       </c>
       <c r="C11">
-        <v>-0.01478051460188285</v>
+        <v>-0.008172159353911605</v>
       </c>
       <c r="D11">
-        <v>-0.0163637403571062</v>
+        <v>0.03847154321453829</v>
       </c>
       <c r="E11">
-        <v>-0.03227309631485971</v>
+        <v>0.0001608686307393855</v>
       </c>
       <c r="F11">
-        <v>-0.04480357297092239</v>
+        <v>-0.009763211983164093</v>
       </c>
       <c r="G11">
-        <v>-0.02693189401414013</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02714285182056233</v>
+      </c>
+      <c r="H11">
+        <v>-0.04415514894775395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04412604450235138</v>
+        <v>0.03051462590942514</v>
       </c>
       <c r="C12">
-        <v>-0.01436900986289814</v>
+        <v>-0.006422587685783763</v>
       </c>
       <c r="D12">
-        <v>-0.01003444032712232</v>
+        <v>0.03958058059655317</v>
       </c>
       <c r="E12">
-        <v>-0.03889339868250199</v>
+        <v>-0.009025127991421711</v>
       </c>
       <c r="F12">
-        <v>-0.03079548033303005</v>
+        <v>-0.01617936183877567</v>
       </c>
       <c r="G12">
-        <v>-0.01761690531801786</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.01237474805391459</v>
+      </c>
+      <c r="H12">
+        <v>-0.02331902217861229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01826998353832799</v>
+        <v>0.02601231842689856</v>
       </c>
       <c r="C13">
-        <v>-0.02079986928347774</v>
+        <v>0.01469145507537068</v>
       </c>
       <c r="D13">
-        <v>-0.01443418167926612</v>
+        <v>-0.004113795743442083</v>
       </c>
       <c r="E13">
-        <v>0.000580563961993247</v>
+        <v>0.01269826583455857</v>
       </c>
       <c r="F13">
-        <v>-0.08380562572712105</v>
+        <v>-0.007277375238712878</v>
       </c>
       <c r="G13">
-        <v>-0.03541216256417838</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.05769376707425523</v>
+      </c>
+      <c r="H13">
+        <v>-0.05570381390694116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01480215360967166</v>
+        <v>0.01703883248337304</v>
       </c>
       <c r="C14">
-        <v>-0.01024631477616061</v>
+        <v>0.0009477134365854649</v>
       </c>
       <c r="D14">
-        <v>0.002240765640511234</v>
+        <v>0.003794713884822729</v>
       </c>
       <c r="E14">
-        <v>-0.04307576355093069</v>
+        <v>-0.01335129548319146</v>
       </c>
       <c r="F14">
-        <v>-0.05419967655940853</v>
+        <v>-0.01167897067129184</v>
       </c>
       <c r="G14">
-        <v>-0.06930832802373771</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04484033875144008</v>
+      </c>
+      <c r="H14">
+        <v>-0.000882432195804015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02841735266287867</v>
+        <v>0.02287275376422301</v>
       </c>
       <c r="C16">
-        <v>-0.01851719173384301</v>
+        <v>-0.008626054141566952</v>
       </c>
       <c r="D16">
-        <v>-0.0173523957477859</v>
+        <v>0.03495080788008775</v>
       </c>
       <c r="E16">
-        <v>-0.02552458107135315</v>
+        <v>-0.003189700919909242</v>
       </c>
       <c r="F16">
-        <v>-0.05098239578252171</v>
+        <v>-0.01598203546220883</v>
       </c>
       <c r="G16">
-        <v>-0.02925209916629011</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02515433899500657</v>
+      </c>
+      <c r="H16">
+        <v>-0.03696886531466415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04744513894770039</v>
+        <v>0.03434501883154899</v>
       </c>
       <c r="C19">
-        <v>-0.01603223723977954</v>
+        <v>0.0006589067034285292</v>
       </c>
       <c r="D19">
-        <v>-0.02013179912062159</v>
+        <v>0.01960317209298022</v>
       </c>
       <c r="E19">
-        <v>-0.04341982953505989</v>
+        <v>-0.004105573758376476</v>
       </c>
       <c r="F19">
-        <v>-0.09639778288417236</v>
+        <v>-0.0156660859357302</v>
       </c>
       <c r="G19">
-        <v>-0.03861586114375418</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.0590676620268262</v>
+      </c>
+      <c r="H19">
+        <v>-0.06813648042420332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0007637670663785436</v>
+        <v>0.009171983751111524</v>
       </c>
       <c r="C20">
-        <v>-0.01348537724555301</v>
+        <v>0.006890567690985261</v>
       </c>
       <c r="D20">
-        <v>2.668665265170813e-05</v>
+        <v>0.007399697955563491</v>
       </c>
       <c r="E20">
-        <v>-0.03677207532836011</v>
+        <v>-0.003621794858482966</v>
       </c>
       <c r="F20">
-        <v>-0.0733244264163274</v>
+        <v>-0.009843101307983727</v>
       </c>
       <c r="G20">
-        <v>-0.07355395294104224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.050733996143429</v>
+      </c>
+      <c r="H20">
+        <v>-0.01078908488306531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0007615380061487335</v>
+        <v>0.01718635186807178</v>
       </c>
       <c r="C21">
-        <v>0.007499675729558701</v>
+        <v>0.007767143115985442</v>
       </c>
       <c r="D21">
-        <v>-0.008869225514588831</v>
+        <v>0.008922784887776501</v>
       </c>
       <c r="E21">
-        <v>-0.03211336427090385</v>
+        <v>-0.01660098711742404</v>
       </c>
       <c r="F21">
-        <v>-0.06026412460570724</v>
+        <v>-0.003173606102398578</v>
       </c>
       <c r="G21">
-        <v>-0.02791498577102711</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.05274397417840943</v>
+      </c>
+      <c r="H21">
+        <v>-0.03213543157406199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03265849934542046</v>
+        <v>0.02049343933144845</v>
       </c>
       <c r="C24">
-        <v>-0.0196988313031705</v>
+        <v>-0.002945122961562502</v>
       </c>
       <c r="D24">
-        <v>-0.009465091367433558</v>
+        <v>0.03427267395772523</v>
       </c>
       <c r="E24">
-        <v>-0.009501561759278588</v>
+        <v>-0.0003669244379484389</v>
       </c>
       <c r="F24">
-        <v>-0.04356830814009298</v>
+        <v>-0.0100799721631656</v>
       </c>
       <c r="G24">
-        <v>-0.02311299517971081</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02166360319542355</v>
+      </c>
+      <c r="H24">
+        <v>-0.03991632339798393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03178481022623911</v>
+        <v>0.03022147541724349</v>
       </c>
       <c r="C25">
-        <v>-0.01084982628952637</v>
+        <v>-0.000794317871369979</v>
       </c>
       <c r="D25">
-        <v>-0.01699374333156133</v>
+        <v>0.03347625169541373</v>
       </c>
       <c r="E25">
-        <v>-0.03736286817638131</v>
+        <v>-0.004519680527627517</v>
       </c>
       <c r="F25">
-        <v>-0.04336385433135513</v>
+        <v>-0.01548182037674663</v>
       </c>
       <c r="G25">
-        <v>-0.009071845759570521</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02578858371418629</v>
+      </c>
+      <c r="H25">
+        <v>-0.04316134508993368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02189697907393338</v>
+        <v>0.0198856222024544</v>
       </c>
       <c r="C26">
-        <v>-0.003821024506166509</v>
+        <v>0.01742270018124928</v>
       </c>
       <c r="D26">
-        <v>-0.03112240755866542</v>
+        <v>0.003594367943190363</v>
       </c>
       <c r="E26">
-        <v>-0.02222430065937146</v>
+        <v>0.00163776054715513</v>
       </c>
       <c r="F26">
-        <v>-0.06587049401532823</v>
+        <v>0.0004382591749027162</v>
       </c>
       <c r="G26">
-        <v>-0.03571701750862404</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03454525447386767</v>
+      </c>
+      <c r="H26">
+        <v>-0.01814911902650032</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.06647195870388692</v>
+        <v>0.02648674522895113</v>
       </c>
       <c r="C27">
-        <v>-0.03056444498448768</v>
+        <v>-0.009851799398000606</v>
       </c>
       <c r="D27">
-        <v>0.02867895675858051</v>
+        <v>0.0147861174701153</v>
       </c>
       <c r="E27">
-        <v>-0.0367051105424966</v>
+        <v>-0.008232759608358604</v>
       </c>
       <c r="F27">
-        <v>-0.05457725703077765</v>
+        <v>-0.01785189124489021</v>
       </c>
       <c r="G27">
-        <v>-0.03745198127448078</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01961469811728637</v>
+      </c>
+      <c r="H27">
+        <v>-0.005474327973240446</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04221855582238655</v>
+        <v>0.1489836452624903</v>
       </c>
       <c r="C28">
-        <v>0.04672925010147955</v>
+        <v>-0.02763904223162738</v>
       </c>
       <c r="D28">
-        <v>0.1142690886536258</v>
+        <v>-0.2242936265265714</v>
       </c>
       <c r="E28">
-        <v>0.1476125682850349</v>
+        <v>0.009606642029021874</v>
       </c>
       <c r="F28">
-        <v>-0.05274739172505736</v>
+        <v>0.05394297723894229</v>
       </c>
       <c r="G28">
-        <v>0.02133494248799758</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.009436004837064107</v>
+      </c>
+      <c r="H28">
+        <v>0.01442215055271089</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02257970424312694</v>
+        <v>0.0222205379396356</v>
       </c>
       <c r="C29">
-        <v>-0.01167423301824039</v>
+        <v>-0.001253932840087152</v>
       </c>
       <c r="D29">
-        <v>0.005457949025116748</v>
+        <v>0.005041039855544636</v>
       </c>
       <c r="E29">
-        <v>-0.05609480079502043</v>
+        <v>-0.01349345974550502</v>
       </c>
       <c r="F29">
-        <v>-0.04412505879380993</v>
+        <v>-0.01489360307960859</v>
       </c>
       <c r="G29">
-        <v>-0.05936762647888302</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.0420301895595817</v>
+      </c>
+      <c r="H29">
+        <v>0.002776824819126454</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.09647944182272783</v>
+        <v>0.05288307765802731</v>
       </c>
       <c r="C30">
-        <v>-0.06104258176906933</v>
+        <v>0.004799322308177283</v>
       </c>
       <c r="D30">
-        <v>-0.01533965132969456</v>
+        <v>0.07005483423437918</v>
       </c>
       <c r="E30">
-        <v>-0.0702848302879822</v>
+        <v>0.02851722744340157</v>
       </c>
       <c r="F30">
-        <v>-0.08602694600817157</v>
+        <v>-0.05191717005736884</v>
       </c>
       <c r="G30">
-        <v>-0.05738804180393678</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.05886403194714513</v>
+      </c>
+      <c r="H30">
+        <v>-0.06294443573880125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06315548011510128</v>
+        <v>0.05505573814145615</v>
       </c>
       <c r="C31">
-        <v>-0.02444551466964609</v>
+        <v>-0.01412306606852907</v>
       </c>
       <c r="D31">
-        <v>-0.02927623065689769</v>
+        <v>0.02645159052710725</v>
       </c>
       <c r="E31">
-        <v>-0.007115537644705919</v>
+        <v>0.004444471446491316</v>
       </c>
       <c r="F31">
-        <v>-0.04330414983654481</v>
+        <v>-0.0126474363882296</v>
       </c>
       <c r="G31">
-        <v>-0.06150012119462812</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01914007050308342</v>
+      </c>
+      <c r="H31">
+        <v>-0.009921802766389069</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02223640981268186</v>
+        <v>0.01172573516533017</v>
       </c>
       <c r="C32">
-        <v>-0.01874172739368927</v>
+        <v>-0.01348918473635637</v>
       </c>
       <c r="D32">
-        <v>-0.009023469789074102</v>
+        <v>0.001308194008634455</v>
       </c>
       <c r="E32">
-        <v>-0.08344834160096716</v>
+        <v>-0.03145494783934749</v>
       </c>
       <c r="F32">
-        <v>-0.06320329631110172</v>
+        <v>-0.03261998553865042</v>
       </c>
       <c r="G32">
-        <v>-0.04620994688657258</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.03494237858251312</v>
+      </c>
+      <c r="H32">
+        <v>-0.05903809260177544</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05240695696551472</v>
+        <v>0.03979370847493911</v>
       </c>
       <c r="C33">
-        <v>-0.01106742434599095</v>
+        <v>-0.0009627756834243427</v>
       </c>
       <c r="D33">
-        <v>-0.04758022773367352</v>
+        <v>0.03273217494444525</v>
       </c>
       <c r="E33">
-        <v>-0.04337486465027587</v>
+        <v>0.02339822411546789</v>
       </c>
       <c r="F33">
-        <v>-0.089081954384467</v>
+        <v>-0.001808306102868907</v>
       </c>
       <c r="G33">
-        <v>-0.05838793790746217</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.05001713567707054</v>
+      </c>
+      <c r="H33">
+        <v>-0.04007670179967494</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03513976390452626</v>
+        <v>0.02760701323982751</v>
       </c>
       <c r="C34">
-        <v>-0.02132562799185112</v>
+        <v>-0.01708416512165877</v>
       </c>
       <c r="D34">
-        <v>-0.01250647063466916</v>
+        <v>0.03491369045833909</v>
       </c>
       <c r="E34">
-        <v>-0.03424359834247805</v>
+        <v>-0.009492517445146372</v>
       </c>
       <c r="F34">
-        <v>-0.05707101860138322</v>
+        <v>-0.01734406382350812</v>
       </c>
       <c r="G34">
-        <v>-0.01455243683238585</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02363469950086958</v>
+      </c>
+      <c r="H34">
+        <v>-0.0367822313243695</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01677571820866957</v>
+        <v>0.02146973987269125</v>
       </c>
       <c r="C36">
-        <v>-0.005847569687487943</v>
+        <v>0.003953374428275691</v>
       </c>
       <c r="D36">
-        <v>0.001579451237952645</v>
+        <v>6.29641381435212e-05</v>
       </c>
       <c r="E36">
-        <v>-0.03202969080642053</v>
+        <v>-0.006503739644122882</v>
       </c>
       <c r="F36">
-        <v>-0.03343084062551611</v>
+        <v>-0.003916800456470184</v>
       </c>
       <c r="G36">
-        <v>-0.03975421446180026</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02069304041240284</v>
+      </c>
+      <c r="H36">
+        <v>-0.006760224426685112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0006362142410776458</v>
+        <v>0.02366418367725773</v>
       </c>
       <c r="C38">
-        <v>0.0133681600875704</v>
+        <v>-0.01599992614488575</v>
       </c>
       <c r="D38">
-        <v>-0.01210571096529189</v>
+        <v>0.004138175812972791</v>
       </c>
       <c r="E38">
-        <v>0.01676585098669268</v>
+        <v>0.001154322978670107</v>
       </c>
       <c r="F38">
-        <v>-0.04748110899907754</v>
+        <v>-0.005194841388444359</v>
       </c>
       <c r="G38">
-        <v>0.0009082374965636</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02029835925194526</v>
+      </c>
+      <c r="H38">
+        <v>-0.03983820556747994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04439198656350148</v>
+        <v>0.01984410119956589</v>
       </c>
       <c r="C39">
-        <v>-0.03738695470506526</v>
+        <v>-0.001111535668750119</v>
       </c>
       <c r="D39">
-        <v>-0.02549674152096639</v>
+        <v>0.07522529075844937</v>
       </c>
       <c r="E39">
-        <v>-0.03737341852418272</v>
+        <v>0.001354587933988168</v>
       </c>
       <c r="F39">
-        <v>-0.06569973498673501</v>
+        <v>-0.0215214706585345</v>
       </c>
       <c r="G39">
-        <v>-0.02658578778917239</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.0451167881347966</v>
+      </c>
+      <c r="H39">
+        <v>-0.06942924747553937</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03989287192187164</v>
+        <v>0.03281612625809948</v>
       </c>
       <c r="C40">
-        <v>-0.06218222740737069</v>
+        <v>-0.0007907281209403458</v>
       </c>
       <c r="D40">
-        <v>-0.0369897220099843</v>
+        <v>0.018087119644429</v>
       </c>
       <c r="E40">
-        <v>0.008507219670379545</v>
+        <v>0.0243044385893031</v>
       </c>
       <c r="F40">
-        <v>-0.08150475277160314</v>
+        <v>-0.02683412094526945</v>
       </c>
       <c r="G40">
-        <v>-0.0524046786430357</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02925060702157799</v>
+      </c>
+      <c r="H40">
+        <v>-0.06502087536480945</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0001536013162870694</v>
+        <v>0.01164968746128987</v>
       </c>
       <c r="C41">
-        <v>0.001571416432618674</v>
+        <v>0.0003981871275213677</v>
       </c>
       <c r="D41">
-        <v>-0.006596045371590144</v>
+        <v>-0.01227595182216785</v>
       </c>
       <c r="E41">
-        <v>-0.01037679288798462</v>
+        <v>0.001965638104676208</v>
       </c>
       <c r="F41">
-        <v>-0.00294989856925509</v>
+        <v>0.001782258293266888</v>
       </c>
       <c r="G41">
-        <v>-0.04709888231908855</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.003543698642760304</v>
+      </c>
+      <c r="H41">
+        <v>0.006441744047636851</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3461505933760227</v>
+        <v>0.1943991298227327</v>
       </c>
       <c r="C42">
-        <v>0.681981576947512</v>
+        <v>0.0791232274434448</v>
       </c>
       <c r="D42">
-        <v>-0.5352369273296341</v>
+        <v>0.366521152206786</v>
       </c>
       <c r="E42">
-        <v>0.1671943926443537</v>
+        <v>0.2265736653517765</v>
       </c>
       <c r="F42">
-        <v>0.2416370542710156</v>
+        <v>0.841776153481115</v>
       </c>
       <c r="G42">
-        <v>-0.06535322216948054</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.2022839321517473</v>
+      </c>
+      <c r="H42">
+        <v>0.04566228466044999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.00730335699555316</v>
+        <v>0.01172980387457049</v>
       </c>
       <c r="C43">
-        <v>0.007215958424009956</v>
+        <v>0.00171095827783986</v>
       </c>
       <c r="D43">
-        <v>-0.01580293429204213</v>
+        <v>-0.01370448858572126</v>
       </c>
       <c r="E43">
-        <v>-0.01237053739731786</v>
+        <v>0.006595281730931767</v>
       </c>
       <c r="F43">
-        <v>-0.0192048334760215</v>
+        <v>0.009292692826514713</v>
       </c>
       <c r="G43">
-        <v>-0.04409388565054085</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.006614641323734276</v>
+      </c>
+      <c r="H43">
+        <v>-0.0001250999767313989</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.0175957670661095</v>
+        <v>0.01382646617303629</v>
       </c>
       <c r="C44">
-        <v>0.004519744308958351</v>
+        <v>-0.001045285924367778</v>
       </c>
       <c r="D44">
-        <v>-0.0206504052409923</v>
+        <v>0.02387173650818979</v>
       </c>
       <c r="E44">
-        <v>-0.02659702909989477</v>
+        <v>-0.005115163720897603</v>
       </c>
       <c r="F44">
-        <v>-0.1109237046001798</v>
+        <v>0.006480299492696739</v>
       </c>
       <c r="G44">
-        <v>-0.07337036013246218</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.04049400142182569</v>
+      </c>
+      <c r="H44">
+        <v>-0.05547240397260875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02027955892521401</v>
+        <v>0.01863482027017836</v>
       </c>
       <c r="C46">
-        <v>-0.01113462831690159</v>
+        <v>0.003912004023784146</v>
       </c>
       <c r="D46">
-        <v>-0.025075906843975</v>
+        <v>0.01404892343424213</v>
       </c>
       <c r="E46">
-        <v>-0.05152929800619924</v>
+        <v>-0.00115867456559152</v>
       </c>
       <c r="F46">
-        <v>-0.05959024545965363</v>
+        <v>-0.01407349257406058</v>
       </c>
       <c r="G46">
-        <v>-0.06324386045057975</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05001140067787946</v>
+      </c>
+      <c r="H46">
+        <v>-0.01153161098110018</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09817609930916116</v>
+        <v>0.07623017199889812</v>
       </c>
       <c r="C47">
-        <v>-0.0305661032516739</v>
+        <v>-0.02937055728012392</v>
       </c>
       <c r="D47">
-        <v>-0.01038157366162261</v>
+        <v>0.04379967322006071</v>
       </c>
       <c r="E47">
-        <v>-0.02329561829677422</v>
+        <v>-0.0007186623721570044</v>
       </c>
       <c r="F47">
-        <v>-0.02091068600538194</v>
+        <v>-0.02360915243179255</v>
       </c>
       <c r="G47">
-        <v>-0.08002571053799533</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.006937561128363082</v>
+      </c>
+      <c r="H47">
+        <v>0.02146739516554479</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01913394280233589</v>
+        <v>0.02326941585020812</v>
       </c>
       <c r="C48">
-        <v>-0.007403778102198707</v>
+        <v>-0.006712807158826115</v>
       </c>
       <c r="D48">
-        <v>-0.01395820504527446</v>
+        <v>0.006841130688278471</v>
       </c>
       <c r="E48">
-        <v>-0.03026463939822511</v>
+        <v>-0.001327002460664783</v>
       </c>
       <c r="F48">
-        <v>-0.05100748372510579</v>
+        <v>-0.008234157339817116</v>
       </c>
       <c r="G48">
-        <v>-0.02434479540573819</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02747105314691854</v>
+      </c>
+      <c r="H48">
+        <v>-0.01682067969280832</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.09196698953092668</v>
+        <v>0.0742430198784324</v>
       </c>
       <c r="C50">
-        <v>-0.02710272364474334</v>
+        <v>-0.02649815728522227</v>
       </c>
       <c r="D50">
-        <v>-0.02188809962891729</v>
+        <v>0.04441136640645319</v>
       </c>
       <c r="E50">
-        <v>-0.03543439327363191</v>
+        <v>-0.01953424778639636</v>
       </c>
       <c r="F50">
-        <v>-0.05213758323092146</v>
+        <v>-0.01815859943618277</v>
       </c>
       <c r="G50">
-        <v>-0.04068384542219532</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01642489152467598</v>
+      </c>
+      <c r="H50">
+        <v>0.00112024154877692</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.0176864612186421</v>
+        <v>0.01926921017564657</v>
       </c>
       <c r="C51">
-        <v>0.009815801796924739</v>
+        <v>0.001447666434186897</v>
       </c>
       <c r="D51">
-        <v>-0.01372473274733159</v>
+        <v>-0.007617632018348731</v>
       </c>
       <c r="E51">
-        <v>0.0004568259096164944</v>
+        <v>0.0004584444461521187</v>
       </c>
       <c r="F51">
-        <v>-0.1164682890914227</v>
+        <v>0.01389514218768455</v>
       </c>
       <c r="G51">
-        <v>-0.04352253000636378</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.0489944946685173</v>
+      </c>
+      <c r="H51">
+        <v>-0.04934089770783073</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1067621260437156</v>
+        <v>0.09454461674634532</v>
       </c>
       <c r="C53">
-        <v>-0.0477343793865214</v>
+        <v>-0.03644719787721463</v>
       </c>
       <c r="D53">
-        <v>-0.0158872433849324</v>
+        <v>0.0789001197548314</v>
       </c>
       <c r="E53">
-        <v>-0.03979512220633173</v>
+        <v>-0.007795223298795721</v>
       </c>
       <c r="F53">
-        <v>0.04788021822878153</v>
+        <v>-0.05116762581404248</v>
       </c>
       <c r="G53">
-        <v>-0.01950731869807816</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.04106468519013694</v>
+      </c>
+      <c r="H53">
+        <v>0.04306203532452729</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02122801983988867</v>
+        <v>0.02573086497329738</v>
       </c>
       <c r="C54">
-        <v>-0.01242209871973958</v>
+        <v>-0.0109260910759682</v>
       </c>
       <c r="D54">
-        <v>0.007348272037441171</v>
+        <v>-0.01251887208082822</v>
       </c>
       <c r="E54">
-        <v>-0.03768914650894146</v>
+        <v>-0.006947123716292924</v>
       </c>
       <c r="F54">
-        <v>-0.05004312841844476</v>
+        <v>-0.004700484392339943</v>
       </c>
       <c r="G54">
-        <v>-0.06202014264791946</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.04075216264387242</v>
+      </c>
+      <c r="H54">
+        <v>0.00409622008379094</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1044035523267263</v>
+        <v>0.07803179900809548</v>
       </c>
       <c r="C55">
-        <v>-0.02775491577861649</v>
+        <v>-0.0313659624446166</v>
       </c>
       <c r="D55">
-        <v>0.005017683511387428</v>
+        <v>0.07604285929607243</v>
       </c>
       <c r="E55">
-        <v>-0.06247478547104901</v>
+        <v>-0.01470916516871329</v>
       </c>
       <c r="F55">
-        <v>0.03776667290424254</v>
+        <v>-0.04092361630097715</v>
       </c>
       <c r="G55">
-        <v>-0.07665215766222734</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01797088983478943</v>
+      </c>
+      <c r="H55">
+        <v>0.05283824136586355</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1475801525694588</v>
+        <v>0.12918337992282</v>
       </c>
       <c r="C56">
-        <v>-0.09006465780055378</v>
+        <v>-0.05582307664573163</v>
       </c>
       <c r="D56">
-        <v>0.01909487121175187</v>
+        <v>0.09976719701887238</v>
       </c>
       <c r="E56">
-        <v>-0.05398347261485457</v>
+        <v>-0.01173673017500902</v>
       </c>
       <c r="F56">
-        <v>0.1043976766942023</v>
+        <v>-0.08316086359903217</v>
       </c>
       <c r="G56">
-        <v>0.03207335414320408</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.07452425358054225</v>
+      </c>
+      <c r="H56">
+        <v>0.04949703405065019</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04852317506449615</v>
+        <v>0.0407749234661932</v>
       </c>
       <c r="C57">
-        <v>-0.0005124292997303236</v>
+        <v>0.01007927277203297</v>
       </c>
       <c r="D57">
-        <v>-0.01394510309471413</v>
+        <v>0.02658102449279865</v>
       </c>
       <c r="E57">
-        <v>0.01031949089005199</v>
+        <v>0.003797450972016993</v>
       </c>
       <c r="F57">
-        <v>-0.0855211502312111</v>
+        <v>-0.01295840047993224</v>
       </c>
       <c r="G57">
-        <v>-0.06703537494204657</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.05713658694092268</v>
+      </c>
+      <c r="H57">
+        <v>-0.04100651121872311</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2069099492985674</v>
+        <v>0.148461652424801</v>
       </c>
       <c r="C58">
-        <v>-0.05961695972496205</v>
+        <v>-0.04100202955845128</v>
       </c>
       <c r="D58">
-        <v>-0.1351345597639008</v>
+        <v>0.1506151178731142</v>
       </c>
       <c r="E58">
-        <v>-0.134943275830449</v>
+        <v>0.164833568693973</v>
       </c>
       <c r="F58">
-        <v>-0.3212153817958469</v>
+        <v>0.04174859945803244</v>
       </c>
       <c r="G58">
-        <v>-0.138414105862485</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.8223162445796177</v>
+      </c>
+      <c r="H58">
+        <v>0.3792476649551362</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.04583302845589157</v>
+        <v>0.154699931292448</v>
       </c>
       <c r="C59">
-        <v>0.0013809790349345</v>
+        <v>-0.0353239515967226</v>
       </c>
       <c r="D59">
-        <v>0.09848499212316697</v>
+        <v>-0.224748188747738</v>
       </c>
       <c r="E59">
-        <v>0.1386429802116985</v>
+        <v>0.02805858157908109</v>
       </c>
       <c r="F59">
-        <v>-0.06835200269758406</v>
+        <v>0.03225546066870058</v>
       </c>
       <c r="G59">
-        <v>0.03235741002662072</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.00689522130000081</v>
+      </c>
+      <c r="H59">
+        <v>-0.01550319890869302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1663439846823291</v>
+        <v>0.1759137523887807</v>
       </c>
       <c r="C60">
-        <v>-0.03733668198044185</v>
+        <v>-0.03519460387584655</v>
       </c>
       <c r="D60">
-        <v>-0.06387612944016725</v>
+        <v>0.01848102845163433</v>
       </c>
       <c r="E60">
-        <v>0.04385692871831994</v>
+        <v>0.04665916599056822</v>
       </c>
       <c r="F60">
-        <v>-0.1722530985933285</v>
+        <v>-0.03566069223968588</v>
       </c>
       <c r="G60">
-        <v>0.3040511548505733</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.04698938624560445</v>
+      </c>
+      <c r="H60">
+        <v>-0.3950993415736716</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02309595013583821</v>
+        <v>0.02123696187451186</v>
       </c>
       <c r="C61">
-        <v>-0.006003130563875595</v>
+        <v>-0.006014922165857842</v>
       </c>
       <c r="D61">
-        <v>-0.01372687984758364</v>
+        <v>0.04139840817890297</v>
       </c>
       <c r="E61">
-        <v>-0.02065458042099163</v>
+        <v>-0.005126921181700093</v>
       </c>
       <c r="F61">
-        <v>-0.03479506570615502</v>
+        <v>-0.01669048232701344</v>
       </c>
       <c r="G61">
-        <v>-0.02204642104304886</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.0269638674572649</v>
+      </c>
+      <c r="H61">
+        <v>-0.04866723011877067</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01715991823238705</v>
+        <v>0.01259136202390948</v>
       </c>
       <c r="C63">
-        <v>-0.01265701659511514</v>
+        <v>0.002388892164033833</v>
       </c>
       <c r="D63">
-        <v>-0.01545672675391666</v>
+        <v>0.01488709780233111</v>
       </c>
       <c r="E63">
-        <v>-0.04489869741054635</v>
+        <v>-0.005114766316287359</v>
       </c>
       <c r="F63">
-        <v>-0.01524517410826249</v>
+        <v>-0.01520420223313156</v>
       </c>
       <c r="G63">
-        <v>-0.04106398492941882</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01786341802448713</v>
+      </c>
+      <c r="H63">
+        <v>-0.002335983046668875</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03639888345591315</v>
+        <v>0.04034971676057579</v>
       </c>
       <c r="C64">
-        <v>-0.001487067889403925</v>
+        <v>-0.009270025202681612</v>
       </c>
       <c r="D64">
-        <v>0.0120844407506058</v>
+        <v>0.03876192014252195</v>
       </c>
       <c r="E64">
-        <v>-0.0562136515850392</v>
+        <v>-0.01169829614972988</v>
       </c>
       <c r="F64">
-        <v>-0.01941008106930005</v>
+        <v>-0.004734121399175654</v>
       </c>
       <c r="G64">
-        <v>-0.06054891768362963</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.008449764970959369</v>
+      </c>
+      <c r="H64">
+        <v>-0.03718194981740941</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01628287860219898</v>
+        <v>0.02868688276609409</v>
       </c>
       <c r="C65">
-        <v>-0.009875678828452051</v>
+        <v>0.004990441675887628</v>
       </c>
       <c r="D65">
-        <v>-0.0184911301106924</v>
+        <v>0.05958316390607635</v>
       </c>
       <c r="E65">
-        <v>-0.02330678757762608</v>
+        <v>-0.01080305342428833</v>
       </c>
       <c r="F65">
-        <v>-0.006459964096495354</v>
+        <v>-0.03346606212155716</v>
       </c>
       <c r="G65">
-        <v>0.000360799355319372</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.004073955093114891</v>
+      </c>
+      <c r="H65">
+        <v>-0.060552133411306</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04802084042349762</v>
+        <v>0.02625417201330869</v>
       </c>
       <c r="C66">
-        <v>-0.03780047375408838</v>
+        <v>-0.005779287023942518</v>
       </c>
       <c r="D66">
-        <v>-0.02664336576872846</v>
+        <v>0.08728589931301095</v>
       </c>
       <c r="E66">
-        <v>-0.03397561780567499</v>
+        <v>0.002614292243920307</v>
       </c>
       <c r="F66">
-        <v>-0.0603987169126626</v>
+        <v>-0.03826000306208474</v>
       </c>
       <c r="G66">
-        <v>-0.01733535314513429</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.03849824089504468</v>
+      </c>
+      <c r="H66">
+        <v>-0.07222905421423134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.014269656537267</v>
+        <v>0.04436121667829479</v>
       </c>
       <c r="C67">
-        <v>0.009266951955040018</v>
+        <v>-0.01919540348726631</v>
       </c>
       <c r="D67">
-        <v>-0.008181613065483286</v>
+        <v>-0.002032532927453818</v>
       </c>
       <c r="E67">
-        <v>0.03929722381523058</v>
+        <v>0.004531453214436602</v>
       </c>
       <c r="F67">
-        <v>-0.03533482505742783</v>
+        <v>-0.01078663045578766</v>
       </c>
       <c r="G67">
-        <v>0.01159948903202435</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.002995917630570546</v>
+      </c>
+      <c r="H67">
+        <v>-0.04017901611100654</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06206368875930551</v>
+        <v>0.1564395306079283</v>
       </c>
       <c r="C68">
-        <v>0.0168550175663652</v>
+        <v>-0.01565206432329562</v>
       </c>
       <c r="D68">
-        <v>0.134983227300289</v>
+        <v>-0.2212621686314858</v>
       </c>
       <c r="E68">
-        <v>0.1423771401703824</v>
+        <v>0.02173849595312832</v>
       </c>
       <c r="F68">
-        <v>-0.05249927005534399</v>
+        <v>0.05117600149965622</v>
       </c>
       <c r="G68">
-        <v>0.07318645184184067</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01820125871000067</v>
+      </c>
+      <c r="H68">
+        <v>0.03770088207555786</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07172199645357995</v>
+        <v>0.05902199145190121</v>
       </c>
       <c r="C69">
-        <v>-0.03415819248647485</v>
+        <v>-0.02791362770666288</v>
       </c>
       <c r="D69">
-        <v>-0.008231268775612522</v>
+        <v>0.03883940851479273</v>
       </c>
       <c r="E69">
-        <v>-0.002625728278383114</v>
+        <v>0.001610827178694528</v>
       </c>
       <c r="F69">
-        <v>-0.01747906432843244</v>
+        <v>-0.03094621062755009</v>
       </c>
       <c r="G69">
-        <v>-0.08427461244252109</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01326085717010403</v>
+      </c>
+      <c r="H69">
+        <v>-0.001870038755309406</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07132349876209435</v>
+        <v>0.1467489858152135</v>
       </c>
       <c r="C71">
-        <v>0.03454061568505887</v>
+        <v>-0.02295708529590612</v>
       </c>
       <c r="D71">
-        <v>0.1164855473744092</v>
+        <v>-0.1991215928344531</v>
       </c>
       <c r="E71">
-        <v>0.198009726894929</v>
+        <v>0.02753020325393219</v>
       </c>
       <c r="F71">
-        <v>-0.07149776535719995</v>
+        <v>0.06143321466216768</v>
       </c>
       <c r="G71">
-        <v>0.03575717761520762</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01788637002821657</v>
+      </c>
+      <c r="H71">
+        <v>0.02933968928985737</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.116157333791325</v>
+        <v>0.08335054219716173</v>
       </c>
       <c r="C72">
-        <v>-0.08696674704745593</v>
+        <v>-0.0389515250948843</v>
       </c>
       <c r="D72">
-        <v>0.002924637862170934</v>
+        <v>0.07537529218883458</v>
       </c>
       <c r="E72">
-        <v>-0.02342198474403542</v>
+        <v>0.007611526697134231</v>
       </c>
       <c r="F72">
-        <v>-0.106941772277809</v>
+        <v>-0.08015211157753721</v>
       </c>
       <c r="G72">
-        <v>0.05501790637626765</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.05862109007772531</v>
+      </c>
+      <c r="H72">
+        <v>-0.1659150892262605</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2472320529350309</v>
+        <v>0.2389938547020693</v>
       </c>
       <c r="C73">
-        <v>-0.04102256511254759</v>
+        <v>-0.04456906372846377</v>
       </c>
       <c r="D73">
-        <v>-0.0654740870541117</v>
+        <v>0.06102445309996286</v>
       </c>
       <c r="E73">
-        <v>0.1293470849383799</v>
+        <v>0.07796393196748815</v>
       </c>
       <c r="F73">
-        <v>-0.2956626890043857</v>
+        <v>-0.03177339207006366</v>
       </c>
       <c r="G73">
-        <v>0.4168929906490861</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.06675006726234249</v>
+      </c>
+      <c r="H73">
+        <v>-0.513639105560619</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1438325360231309</v>
+        <v>0.1199671950431937</v>
       </c>
       <c r="C74">
-        <v>-0.04351868411706153</v>
+        <v>-0.05156589118506383</v>
       </c>
       <c r="D74">
-        <v>0.01621570214447583</v>
+        <v>0.1001051240639604</v>
       </c>
       <c r="E74">
-        <v>-0.03337065613825906</v>
+        <v>-0.008616840870778384</v>
       </c>
       <c r="F74">
-        <v>0.07147427621656727</v>
+        <v>-0.06207128132885214</v>
       </c>
       <c r="G74">
-        <v>0.02769756278839001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.05573743573540142</v>
+      </c>
+      <c r="H74">
+        <v>0.03263756506636635</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2361769230844133</v>
+        <v>0.2312303276105765</v>
       </c>
       <c r="C75">
-        <v>-0.1492012091237901</v>
+        <v>-0.1010918346929128</v>
       </c>
       <c r="D75">
-        <v>0.02387012923499504</v>
+        <v>0.1598881823133631</v>
       </c>
       <c r="E75">
-        <v>-0.05828595682005318</v>
+        <v>0.003112039151398876</v>
       </c>
       <c r="F75">
-        <v>0.1312245760520941</v>
+        <v>-0.1492811566742346</v>
       </c>
       <c r="G75">
-        <v>0.004238990103374573</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.126481096748242</v>
+      </c>
+      <c r="H75">
+        <v>0.1145283787965387</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2851612409004666</v>
+        <v>0.2047725184588548</v>
       </c>
       <c r="C76">
-        <v>-0.1412160317380082</v>
+        <v>-0.09464323096850055</v>
       </c>
       <c r="D76">
-        <v>0.09427807741705133</v>
+        <v>0.1544625003603687</v>
       </c>
       <c r="E76">
-        <v>-0.07669996586350902</v>
+        <v>-0.04735244039933394</v>
       </c>
       <c r="F76">
-        <v>0.176026642591854</v>
+        <v>-0.1458474685713425</v>
       </c>
       <c r="G76">
-        <v>-0.01133693214320116</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.12372567105171</v>
+      </c>
+      <c r="H76">
+        <v>0.1230706696311437</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1401078483969954</v>
+        <v>0.06981415298447802</v>
       </c>
       <c r="C77">
-        <v>0.03262542175343878</v>
+        <v>-0.007438309982356581</v>
       </c>
       <c r="D77">
-        <v>-0.08289209194812946</v>
+        <v>0.06207475193047685</v>
       </c>
       <c r="E77">
-        <v>-0.06697597763529453</v>
+        <v>0.01608154317690735</v>
       </c>
       <c r="F77">
-        <v>-0.1803442682117047</v>
+        <v>0.03554362317850099</v>
       </c>
       <c r="G77">
-        <v>-0.1534482258657772</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.1043888515244507</v>
+      </c>
+      <c r="H77">
+        <v>-0.0008011539826786698</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.06245600260303559</v>
+        <v>0.03925257987618695</v>
       </c>
       <c r="C78">
-        <v>-0.02167554877313718</v>
+        <v>-0.009712196688936511</v>
       </c>
       <c r="D78">
-        <v>-0.03193276855808671</v>
+        <v>0.04845468901949324</v>
       </c>
       <c r="E78">
-        <v>-0.09438401209272354</v>
+        <v>-0.007929748175828253</v>
       </c>
       <c r="F78">
-        <v>-0.05575752877633468</v>
+        <v>-0.02024678036046344</v>
       </c>
       <c r="G78">
-        <v>-0.03811137770497899</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.06089552839536949</v>
+      </c>
+      <c r="H78">
+        <v>-0.06622434971097126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1337556360383078</v>
+        <v>0.1406057580084366</v>
       </c>
       <c r="C80">
-        <v>0.5683736513629616</v>
+        <v>-0.03630828995461215</v>
       </c>
       <c r="D80">
-        <v>0.5891964848646896</v>
+        <v>0.03910087105187526</v>
       </c>
       <c r="E80">
-        <v>-0.5178789622920346</v>
+        <v>-0.9394618643341381</v>
       </c>
       <c r="F80">
-        <v>-0.05773892183415882</v>
+        <v>0.2429662753266754</v>
       </c>
       <c r="G80">
-        <v>0.09966977046039847</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.1173370924358847</v>
+      </c>
+      <c r="H80">
+        <v>-0.008008703015426187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1773580848245775</v>
+        <v>0.1508996157113989</v>
       </c>
       <c r="C81">
-        <v>-0.1023564370896536</v>
+        <v>-0.06501800058791776</v>
       </c>
       <c r="D81">
-        <v>0.04449951701881676</v>
+        <v>0.09974824002186596</v>
       </c>
       <c r="E81">
-        <v>-0.04323556657131789</v>
+        <v>-0.0167958721406348</v>
       </c>
       <c r="F81">
-        <v>0.1270707294322491</v>
+        <v>-0.09057111859982596</v>
       </c>
       <c r="G81">
-        <v>0.01695719386012919</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.07841693452466987</v>
+      </c>
+      <c r="H81">
+        <v>0.07818927077615952</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05064934695539676</v>
+        <v>0.03360027028669999</v>
       </c>
       <c r="C83">
-        <v>0.003448837027063304</v>
+        <v>-0.005695885649038387</v>
       </c>
       <c r="D83">
-        <v>-0.03640768375952299</v>
+        <v>0.02032820328235461</v>
       </c>
       <c r="E83">
-        <v>-0.01265932573537778</v>
+        <v>0.005423201075835364</v>
       </c>
       <c r="F83">
-        <v>-0.0573832480527055</v>
+        <v>-0.001816780789710581</v>
       </c>
       <c r="G83">
-        <v>-0.03391479265605708</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04356320925299954</v>
+      </c>
+      <c r="H83">
+        <v>-0.0406498062472396</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2551651324418281</v>
+        <v>0.218247591943192</v>
       </c>
       <c r="C85">
-        <v>-0.1289850640260257</v>
+        <v>-0.08418037853552165</v>
       </c>
       <c r="D85">
-        <v>0.04176585299410874</v>
+        <v>0.16178495228937</v>
       </c>
       <c r="E85">
-        <v>-0.06469459701163954</v>
+        <v>-0.002953708225812045</v>
       </c>
       <c r="F85">
-        <v>0.135060311552049</v>
+        <v>-0.1345123666314348</v>
       </c>
       <c r="G85">
-        <v>-0.04397380404215366</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1386236457631805</v>
+      </c>
+      <c r="H85">
+        <v>0.08838921056256775</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.004983834593671954</v>
+        <v>0.02158419297665531</v>
       </c>
       <c r="C86">
-        <v>0.004465434059861109</v>
+        <v>0.0007658597494284965</v>
       </c>
       <c r="D86">
-        <v>-0.01889966734970199</v>
+        <v>0.005121359677442953</v>
       </c>
       <c r="E86">
-        <v>-0.05474719506110425</v>
+        <v>0.009188961905031849</v>
       </c>
       <c r="F86">
-        <v>-0.0602788514328538</v>
+        <v>0.01940139135336026</v>
       </c>
       <c r="G86">
-        <v>-0.007861775657391955</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.06498927239420221</v>
+      </c>
+      <c r="H86">
+        <v>-0.07497154949833423</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03747454548039809</v>
+        <v>0.0287953372042986</v>
       </c>
       <c r="C87">
-        <v>0.006120587240893331</v>
+        <v>-0.002383367713423458</v>
       </c>
       <c r="D87">
-        <v>-0.002498578059818645</v>
+        <v>0.03025701452840401</v>
       </c>
       <c r="E87">
-        <v>-0.04313542402897835</v>
+        <v>-0.006386423986271611</v>
       </c>
       <c r="F87">
-        <v>-0.1036813290511936</v>
+        <v>-0.004234732399553199</v>
       </c>
       <c r="G87">
-        <v>-0.04390789585961342</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.08215700223151669</v>
+      </c>
+      <c r="H87">
+        <v>-0.06945276089539194</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01226019992957932</v>
+        <v>0.03423213547656984</v>
       </c>
       <c r="C88">
-        <v>-0.00403593025119018</v>
+        <v>0.01236092532513914</v>
       </c>
       <c r="D88">
-        <v>0.0180481677974337</v>
+        <v>0.00739624954498985</v>
       </c>
       <c r="E88">
-        <v>0.002128501689666147</v>
+        <v>-0.00947388499825436</v>
       </c>
       <c r="F88">
-        <v>-0.0100812535884675</v>
+        <v>-0.009237743546101181</v>
       </c>
       <c r="G88">
-        <v>-0.04912941477749133</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.000917799067574419</v>
+      </c>
+      <c r="H88">
+        <v>-0.01368940047307681</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08510046106490443</v>
+        <v>0.2453694600362938</v>
       </c>
       <c r="C89">
-        <v>0.04716986133893203</v>
+        <v>-0.03514680277053916</v>
       </c>
       <c r="D89">
-        <v>0.1616868194163721</v>
+        <v>-0.350554002094918</v>
       </c>
       <c r="E89">
-        <v>0.2621503311889551</v>
+        <v>0.04491876517998615</v>
       </c>
       <c r="F89">
-        <v>-0.1224625998776444</v>
+        <v>0.06683918740476044</v>
       </c>
       <c r="G89">
-        <v>0.003488082194741335</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.0301201272651038</v>
+      </c>
+      <c r="H89">
+        <v>0.0144971303647147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07640358602047576</v>
+        <v>0.1981982904669191</v>
       </c>
       <c r="C90">
-        <v>0.07094532644543576</v>
+        <v>-0.02892004179291177</v>
       </c>
       <c r="D90">
-        <v>0.2116525404616623</v>
+        <v>-0.3074772350905844</v>
       </c>
       <c r="E90">
-        <v>0.2611632657532124</v>
+        <v>0.03380595457386086</v>
       </c>
       <c r="F90">
-        <v>-0.08084130346132717</v>
+        <v>0.08054815333637484</v>
       </c>
       <c r="G90">
-        <v>0.004275108800432526</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.03603072426306325</v>
+      </c>
+      <c r="H90">
+        <v>0.06611791831467177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.316740987233574</v>
+        <v>0.2371343621074887</v>
       </c>
       <c r="C91">
-        <v>-0.143928534745516</v>
+        <v>-0.1017346325205093</v>
       </c>
       <c r="D91">
-        <v>0.03770667258188998</v>
+        <v>0.1509424858739609</v>
       </c>
       <c r="E91">
-        <v>-0.03721784915225305</v>
+        <v>-0.001465689623350737</v>
       </c>
       <c r="F91">
-        <v>0.2417580172446644</v>
+        <v>-0.1417730263140911</v>
       </c>
       <c r="G91">
-        <v>0.02944165828857567</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.148504835191271</v>
+      </c>
+      <c r="H91">
+        <v>0.1631568839168715</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1636794131275171</v>
+        <v>0.2423678547509551</v>
       </c>
       <c r="C92">
-        <v>0.02328140255487902</v>
+        <v>-0.0902553138086705</v>
       </c>
       <c r="D92">
-        <v>0.2882385400632921</v>
+        <v>-0.2367388937501231</v>
       </c>
       <c r="E92">
-        <v>0.3680746757741675</v>
+        <v>0.02010861261437476</v>
       </c>
       <c r="F92">
-        <v>0.04549270006711651</v>
+        <v>0.03545213813792148</v>
       </c>
       <c r="G92">
-        <v>-0.5946531477772792</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.004031085518038898</v>
+      </c>
+      <c r="H92">
+        <v>0.1581538706995838</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.07925218898285923</v>
+        <v>0.2223656489144681</v>
       </c>
       <c r="C93">
-        <v>0.075537517641762</v>
+        <v>-0.04062886883053916</v>
       </c>
       <c r="D93">
-        <v>0.242001310440651</v>
+        <v>-0.3313732290313579</v>
       </c>
       <c r="E93">
-        <v>0.3883241975796065</v>
+        <v>0.05863267594301553</v>
       </c>
       <c r="F93">
-        <v>-0.05161851508245458</v>
+        <v>0.09118363541704429</v>
       </c>
       <c r="G93">
-        <v>0.08420761569292437</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03375330859693289</v>
+      </c>
+      <c r="H93">
+        <v>0.01529651997219033</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3074650484773104</v>
+        <v>0.2612510401392785</v>
       </c>
       <c r="C94">
-        <v>-0.2124341075398961</v>
+        <v>-0.09252724953894585</v>
       </c>
       <c r="D94">
-        <v>0.08426483925637469</v>
+        <v>0.1466466527914955</v>
       </c>
       <c r="E94">
-        <v>-0.04653593268019186</v>
+        <v>0.007079869012203211</v>
       </c>
       <c r="F94">
-        <v>0.2103659371732372</v>
+        <v>-0.1893493054827342</v>
       </c>
       <c r="G94">
-        <v>0.07573003110056926</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.139652440896002</v>
+      </c>
+      <c r="H94">
+        <v>0.1809640377025259</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06740282941615754</v>
+        <v>0.05271897010148561</v>
       </c>
       <c r="C95">
-        <v>-0.02448443375347265</v>
+        <v>-0.02780680295747965</v>
       </c>
       <c r="D95">
-        <v>-0.09701556723010718</v>
+        <v>0.0863738841306947</v>
       </c>
       <c r="E95">
-        <v>-0.06467530761415281</v>
+        <v>0.07966243754185239</v>
       </c>
       <c r="F95">
-        <v>-0.004180423164484325</v>
+        <v>-0.006343404043731571</v>
       </c>
       <c r="G95">
-        <v>-0.1373155194131946</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.03447530033925734</v>
+      </c>
+      <c r="H95">
+        <v>-0.041399510904192</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1806381371649937</v>
+        <v>0.1822109835557478</v>
       </c>
       <c r="C98">
-        <v>0.008203191994033496</v>
+        <v>-0.0664855203084064</v>
       </c>
       <c r="D98">
-        <v>-0.03221515261737871</v>
+        <v>0.03523088207556684</v>
       </c>
       <c r="E98">
-        <v>0.08594414291973086</v>
+        <v>0.04513525566508653</v>
       </c>
       <c r="F98">
-        <v>-0.1543324438586558</v>
+        <v>2.7681048264886e-05</v>
       </c>
       <c r="G98">
-        <v>0.3267588230167491</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.08024387395583138</v>
+      </c>
+      <c r="H98">
+        <v>-0.3746288335783364</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.007934406342210073</v>
+        <v>0.01554077502947085</v>
       </c>
       <c r="C101">
-        <v>-0.02467628262556555</v>
+        <v>0.0007441730936612228</v>
       </c>
       <c r="D101">
-        <v>-0.0227715558628902</v>
+        <v>0.00621380354908396</v>
       </c>
       <c r="E101">
-        <v>-0.1083557279587769</v>
+        <v>-0.005646487843496228</v>
       </c>
       <c r="F101">
-        <v>-0.143503077990658</v>
+        <v>-0.01662775620141886</v>
       </c>
       <c r="G101">
-        <v>-0.1839960194367919</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1100562411880718</v>
+      </c>
+      <c r="H101">
+        <v>0.03339063973643405</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1106474148895682</v>
+        <v>0.1060492186548443</v>
       </c>
       <c r="C102">
-        <v>-0.06591323086686135</v>
+        <v>-0.03357800829295786</v>
       </c>
       <c r="D102">
-        <v>-0.001800039131656765</v>
+        <v>0.07864610140284684</v>
       </c>
       <c r="E102">
-        <v>-0.04624514126009033</v>
+        <v>-0.004434262802520498</v>
       </c>
       <c r="F102">
-        <v>0.1193293341104131</v>
+        <v>-0.06837159674557086</v>
       </c>
       <c r="G102">
-        <v>0.00176007288708941</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.07823188823693059</v>
+      </c>
+      <c r="H102">
+        <v>0.06823059145884466</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02850238217091388</v>
+        <v>0.0196592041628095</v>
       </c>
       <c r="C103">
-        <v>-0.01547542948416013</v>
+        <v>-0.007244776474006607</v>
       </c>
       <c r="D103">
-        <v>0.002648969688182482</v>
+        <v>0.01704836450564597</v>
       </c>
       <c r="E103">
-        <v>-0.0143482754922847</v>
+        <v>-0.01127508521164554</v>
       </c>
       <c r="F103">
-        <v>0.009336395052857589</v>
+        <v>-0.01387564983490185</v>
       </c>
       <c r="G103">
-        <v>-0.03327592228829096</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.0007253153003653772</v>
+      </c>
+      <c r="H103">
+        <v>0.008034588982100549</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2576587639703079</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9491030116720011</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.01267847976004277</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.03532805661382336</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1455422424642579</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.01331900317940785</v>
+      </c>
+      <c r="H104">
+        <v>0.03859288896593561</v>
       </c>
     </row>
   </sheetData>
